--- a/Data/Processed/Angiosperms/missing_powo_ipni/Costaceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Costaceae.xlsx
@@ -1367,7 +1367,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -2115,7 +2115,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -2193,7 +2193,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -2349,7 +2349,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
